--- a/src/main/resources/excel/用户表导入.xlsx
+++ b/src/main/resources/excel/用户表导入.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SHSXT-33\Idea-workspace\springboot2.x_ssm\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A37924B-DE8C-4681-8F4E-3CCD6B374067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="10584" yWindow="744" windowWidth="12060" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息file" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>姓名</t>
   </si>
@@ -35,13 +36,17 @@
   </si>
   <si>
     <t>赵六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,7 +82,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,13 +105,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,6 +131,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,19 +414,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +436,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -428,8 +450,11 @@
       <c r="C2" s="2">
         <v>34630</v>
       </c>
+      <c r="D2">
+        <v>10.01</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
